--- a/AmsTest/test_TansferAssignment/Executiondir/Execution.xlsx
+++ b/AmsTest/test_TansferAssignment/Executiondir/Execution.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21600" windowHeight="9795" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1007,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -1129,7 +1129,14 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>test_CreateBreakdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="1"/>
